--- a/inst/extdata/RindviehCH_Schnittstelle_4_13_D_K11.xlsx
+++ b/inst/extdata/RindviehCH_Schnittstelle_4_13_D_K11.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvr\Daten\Github\pvrqualitasag\PedigreeFromTvdData\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data_projekte/projekte/muku_ZWS_SourceCodeAnpassungen/20170904_FLP_Fettabdeckung/prog/PedigreeFromTvdData/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Blatt1!$A$1:$M$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Blatt1!$A$1:$M$29</definedName>
     <definedName name="Z_013DCD84_7493_4A84_AB53_3EA1AAEE6573_.wvu.Cols" localSheetId="0" hidden="1">Blatt1!$F:$F</definedName>
-    <definedName name="Z_013DCD84_7493_4A84_AB53_3EA1AAEE6573_.wvu.PrintArea" localSheetId="0" hidden="1">Blatt1!$B$1:$M$33</definedName>
-    <definedName name="Z_ED362FE5_BD25_11D3_A272_0000C0EE2CF6_.wvu.PrintArea" localSheetId="0" hidden="1">Blatt1!$B$1:$M$33</definedName>
+    <definedName name="Z_013DCD84_7493_4A84_AB53_3EA1AAEE6573_.wvu.PrintArea" localSheetId="0" hidden="1">Blatt1!$B$1:$M$29</definedName>
+    <definedName name="Z_ED362FE5_BD25_11D3_A272_0000C0EE2CF6_.wvu.PrintArea" localSheetId="0" hidden="1">Blatt1!$B$1:$M$29</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Max Reich - Persönliche Ansicht" guid="{013DCD84-7493-4A84-AB53-3EA1AAEE6573}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1257" windowHeight="792" activeSheetId="1"/>
     <customWorkbookView name="Roland Ribi - Persönliche Ansicht" guid="{ED362FE5-BD25-11D3-A272-0000C0EE2CF6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="601" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="42">
   <si>
     <t>Betriebsidentifikation nach TVD</t>
   </si>
@@ -99,20 +107,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Erbfehlercode  </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>69</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Vater Identifikation</t>
     </r>
     <r>
@@ -361,9 +355,6 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>TVD</t>
-  </si>
-  <si>
     <t>Kalbedatum</t>
   </si>
   <si>
@@ -380,34 +371,6 @@
   </si>
   <si>
     <t>ZKZ [Tage]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Totgeburt </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>67</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zeitpunkt des Todes </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>68</t>
-    </r>
   </si>
   <si>
     <t>Betriebsidentifikation nach TVD bei der Abkalbung</t>
@@ -419,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -674,7 +637,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,13 +714,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,96 +732,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="79">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,46 +1175,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1">
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="22" customWidth="1"/>
-    <col min="9" max="12" width="4.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="22" customWidth="1"/>
+    <col min="9" max="12" width="4.6640625" style="22" customWidth="1"/>
     <col min="13" max="13" width="5" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="10.85546875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="9">
         <f>INT(SUM(F1+E2))</f>
@@ -1271,33 +1225,33 @@
         <v>1-3</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="9">
         <f>INT(SUM(F2+E3))</f>
@@ -1308,27 +1262,27 @@
         <v>4-5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="3">
         <v>10</v>
       </c>
@@ -1341,27 +1295,27 @@
         <v>6-15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3">
         <v>7</v>
       </c>
@@ -1374,27 +1328,27 @@
         <v>16-22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="3">
         <v>14</v>
       </c>
@@ -1407,27 +1361,27 @@
         <v>23-36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>3</v>
       </c>
@@ -1440,29 +1394,29 @@
         <v>37-39</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
@@ -1473,27 +1427,27 @@
         <v>40-51</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="3">
         <v>10</v>
       </c>
@@ -1506,27 +1460,27 @@
         <v>52-61</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="3">
         <v>7</v>
       </c>
@@ -1539,29 +1493,29 @@
         <v>62-68</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
@@ -1572,29 +1526,29 @@
         <v>69-70</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
@@ -1605,27 +1559,27 @@
         <v>71-78</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="3">
         <v>14</v>
       </c>
@@ -1638,27 +1592,27 @@
         <v>79-92</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="3">
         <v>3</v>
       </c>
@@ -1671,29 +1625,29 @@
         <v>93-95</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
@@ -1704,29 +1658,29 @@
         <v>96-96</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
@@ -1737,27 +1691,27 @@
         <v>97-97</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="3">
         <v>14</v>
       </c>
@@ -1770,27 +1724,27 @@
         <v>98-111</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="3">
         <v>3</v>
       </c>
@@ -1803,29 +1757,29 @@
         <v>112-114</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
@@ -1836,29 +1790,29 @@
         <v>115-115</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
@@ -1869,29 +1823,29 @@
         <v>116-118</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
@@ -1902,29 +1856,29 @@
         <v>119-119</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
@@ -1935,27 +1889,27 @@
         <v>120-120</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="3">
         <v>2</v>
       </c>
@@ -1968,24 +1922,24 @@
         <v>121-122</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
@@ -2001,27 +1955,27 @@
         <v>123-124</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="3">
         <v>1</v>
       </c>
@@ -2034,27 +1988,27 @@
         <v>125-125</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="3">
         <v>14</v>
       </c>
@@ -2067,27 +2021,27 @@
         <v>126-139</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="3">
         <v>3</v>
       </c>
@@ -2100,32 +2054,32 @@
         <v>140-142</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="3">
         <v>8</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" ref="F28:F33" si="2">INT(SUM(F27+E28))</f>
+        <f t="shared" ref="F28:F29" si="2">INT(SUM(F27+E28))</f>
         <v>150</v>
       </c>
       <c r="G28" s="4" t="str">
@@ -2133,7 +2087,7 @@
         <v>143-150</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="1"/>
@@ -2141,15 +2095,15 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="3">
         <v>1</v>
       </c>
@@ -2158,11 +2112,11 @@
         <v>151</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" ref="G29:G33" si="3">CONCATENATE(F28+1,"-",F29)</f>
+        <f t="shared" ref="G29" si="3">CONCATENATE(F28+1,"-",F29)</f>
         <v>151-151</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="1"/>
@@ -2170,133 +2124,9 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="G30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>152-152</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="3">
-        <v>3</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="G31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>153-155</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="G32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>156-158</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="3">
-        <v>3</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="G33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>159-161</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
